--- a/README/Tables/RMS_model_data.xlsx
+++ b/README/Tables/RMS_model_data.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Машины опорных векторов\Задание 2\графики\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Машины опорных векторов\Задание 2\реализация\README\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F35E1F88-9548-49A4-AA74-8CECCDF9EE69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9892C21D-73ED-40CE-97A6-A4B7B191BCCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="10170"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RMS_model_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,6 +388,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,7 +707,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -703,9 +719,10 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1060,11 +1077,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1146,11 +1163,11 @@
         <f t="shared" si="0"/>
         <v>524288</v>
       </c>
-      <c r="U1" s="12">
+      <c r="U1" s="11">
         <f t="shared" si="0"/>
         <v>1048576</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1555,7 +1572,7 @@
         <v>3.8972734738976E-4</v>
       </c>
       <c r="T14" s="1"/>
-      <c r="U14" s="1">
+      <c r="U14" s="14">
         <v>3.4427032793529397E-4</v>
       </c>
       <c r="V14" t="s">
@@ -1700,7 +1717,7 @@
       <c r="U19" s="1"/>
     </row>
     <row r="20" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="13" t="s">
         <v>1</v>
       </c>
     </row>
